--- a/experiment raw data/LexTALE.xlsx
+++ b/experiment raw data/LexTALE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,6 +785,342 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3001</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3003</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>62.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3005</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>78,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3004</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3010</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3007</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>57,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3006</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3009</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4002</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3002</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4003</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>61.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4004</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>61.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>62.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
